--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2704988.973520609</v>
+        <v>-2707628.398998079</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>341.9739701260766</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>284.3185410431208</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>57.65542908295717</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.2226130746801</v>
       </c>
       <c r="H3" t="n">
-        <v>91.75197580253082</v>
+        <v>91.75197580253081</v>
       </c>
       <c r="I3" t="n">
-        <v>16.37427717174646</v>
+        <v>16.37427717174644</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>97.34378597607535</v>
+        <v>97.34378597607534</v>
       </c>
       <c r="S4" t="n">
-        <v>193.029256032545</v>
+        <v>193.0292560325449</v>
       </c>
       <c r="T4" t="n">
         <v>220.3482755304824</v>
@@ -874,7 +874,7 @@
         <v>286.2220423705616</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>171.3965834693199</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.09092032742883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>335.6189877696317</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.95558184798582</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>23.35772589727823</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>28.43919684076942</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>379.2486623567093</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4827461567857</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>97.27989568773788</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>93.47758125341751</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419834004</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428202</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U16" t="n">
         <v>286.184474389244</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977313</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652485</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652482</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652518</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808201</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972035</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417073</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3743,19 +3743,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3955,7 +3955,7 @@
         <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
         <v>262.2383508445512</v>
@@ -3964,7 +3964,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.9811888265258</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401.769906663696</v>
+        <v>401.7699066636978</v>
       </c>
       <c r="C2" t="n">
-        <v>401.769906663696</v>
+        <v>401.7699066636978</v>
       </c>
       <c r="D2" t="n">
-        <v>401.769906663696</v>
+        <v>401.7699066636978</v>
       </c>
       <c r="E2" t="n">
-        <v>401.769906663696</v>
+        <v>401.7699066636978</v>
       </c>
       <c r="F2" t="n">
-        <v>401.7699066636962</v>
+        <v>401.769906663698</v>
       </c>
       <c r="G2" t="n">
-        <v>56.34165401109313</v>
+        <v>401.769906663698</v>
       </c>
       <c r="H2" t="n">
-        <v>56.34165401109313</v>
+        <v>114.5794611655958</v>
       </c>
       <c r="I2" t="n">
-        <v>56.34165401109313</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="J2" t="n">
-        <v>210.1777629739674</v>
+        <v>210.1777629739681</v>
       </c>
       <c r="K2" t="n">
-        <v>491.4767306579179</v>
+        <v>491.4767306579188</v>
       </c>
       <c r="L2" t="n">
-        <v>877.3547360840298</v>
+        <v>877.3547360840312</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.387805296443</v>
+        <v>1338.387805296445</v>
       </c>
       <c r="N2" t="n">
-        <v>1811.494679942781</v>
+        <v>1811.494679942782</v>
       </c>
       <c r="O2" t="n">
-        <v>2244.900824692378</v>
+        <v>2244.90082469238</v>
       </c>
       <c r="P2" t="n">
-        <v>2580.301941171661</v>
+        <v>2580.301941171663</v>
       </c>
       <c r="Q2" t="n">
-        <v>2784.001464928706</v>
+        <v>2784.001464928708</v>
       </c>
       <c r="R2" t="n">
-        <v>2817.082700554676</v>
+        <v>2817.082700554678</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.192403003823</v>
+        <v>2697.192403003824</v>
       </c>
       <c r="T2" t="n">
-        <v>2489.37055769024</v>
+        <v>2489.370557690242</v>
       </c>
       <c r="U2" t="n">
-        <v>2235.806379578394</v>
+        <v>2235.806379578396</v>
       </c>
       <c r="V2" t="n">
-        <v>1904.743492234823</v>
+        <v>1904.743492234825</v>
       </c>
       <c r="W2" t="n">
-        <v>1551.974836964709</v>
+        <v>1551.974836964711</v>
       </c>
       <c r="X2" t="n">
-        <v>1178.509078703629</v>
+        <v>1178.509078703631</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.3697467278178</v>
+        <v>788.3697467278196</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.5600913588484</v>
       </c>
       <c r="H3" t="n">
-        <v>72.88132792194853</v>
+        <v>72.88132792194855</v>
       </c>
       <c r="I3" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="J3" t="n">
         <v>129.1475396695374</v>
       </c>
       <c r="K3" t="n">
-        <v>331.739219335594</v>
+        <v>331.7392193355942</v>
       </c>
       <c r="L3" t="n">
-        <v>650.4712751678849</v>
+        <v>650.4712751678851</v>
       </c>
       <c r="M3" t="n">
-        <v>1041.773418876591</v>
+        <v>1041.773418876592</v>
       </c>
       <c r="N3" t="n">
-        <v>1457.840810889146</v>
+        <v>1457.840810889147</v>
       </c>
       <c r="O3" t="n">
-        <v>1816.24139401901</v>
+        <v>1816.241394019011</v>
       </c>
       <c r="P3" t="n">
         <v>2191.155572931812</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="C4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="D4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109351</v>
       </c>
       <c r="E4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="F4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="G4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="H4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="I4" t="n">
-        <v>56.34165401109352</v>
+        <v>56.34165401109356</v>
       </c>
       <c r="J4" t="n">
-        <v>88.37025097505892</v>
+        <v>88.37025097505921</v>
       </c>
       <c r="K4" t="n">
         <v>270.8399112966551</v>
@@ -4495,43 +4495,43 @@
         <v>559.8646890059854</v>
       </c>
       <c r="M4" t="n">
-        <v>874.9899159308713</v>
+        <v>874.9899159308717</v>
       </c>
       <c r="N4" t="n">
-        <v>1188.056785720851</v>
+        <v>1188.056785720852</v>
       </c>
       <c r="O4" t="n">
-        <v>1461.208415798623</v>
+        <v>1461.208415798624</v>
       </c>
       <c r="P4" t="n">
-        <v>1671.41614150354</v>
+        <v>1671.416141503541</v>
       </c>
       <c r="Q4" t="n">
-        <v>1733.517994704577</v>
+        <v>1733.517994704578</v>
       </c>
       <c r="R4" t="n">
-        <v>1635.190938163087</v>
+        <v>1635.190938163088</v>
       </c>
       <c r="S4" t="n">
-        <v>1440.211891665567</v>
+        <v>1440.211891665568</v>
       </c>
       <c r="T4" t="n">
-        <v>1217.637875978211</v>
+        <v>1217.637875978212</v>
       </c>
       <c r="U4" t="n">
-        <v>928.524701866533</v>
+        <v>928.5247018665333</v>
       </c>
       <c r="V4" t="n">
-        <v>673.8402136606461</v>
+        <v>755.3968397763111</v>
       </c>
       <c r="W4" t="n">
-        <v>384.4230436236855</v>
+        <v>465.9796697393506</v>
       </c>
       <c r="X4" t="n">
-        <v>156.4334927256681</v>
+        <v>237.9901188413332</v>
       </c>
       <c r="Y4" t="n">
-        <v>56.34165401109352</v>
+        <v>237.9901188413332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4702,22 +4702,22 @@
         <v>409.1586012949293</v>
       </c>
       <c r="C7" t="n">
-        <v>240.2224183670224</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="D7" t="n">
-        <v>90.10577895468668</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>241.4557646696483</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>95.23857788750607</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125552</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.71592618514</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.71592618514</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>909.9276735868957</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189673</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1739.201569949316</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1517.434954518842</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.332087644485</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>973.6475994385985</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>684.2304294016378</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036205</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
         <v>680.0291294438176</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740073</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998305</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138427</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703127</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="14">
@@ -5255,25 +5255,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.192580311172</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5458,7 +5458,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998288</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,7 +5686,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5701,7 +5701,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854706</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="20">
@@ -5744,40 +5744,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.192580311172</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345466</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438401</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N25" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345466</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438401</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
         <v>1483.79828551875</v>
@@ -6427,7 +6427,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.8255460380728</v>
@@ -6646,25 +6646,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6783,7 +6783,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637303</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438182</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
         <v>898.265941231132</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551871</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611459</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004709</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="39">
@@ -7239,31 +7239,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745235</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,7 +7403,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,49 +7412,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438182</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>107.675939435162</v>
+        <v>107.6759394351611</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>69.36481017519554</v>
+        <v>411.3387803012722</v>
       </c>
       <c r="H2" t="n">
-        <v>298.8789252992939</v>
+        <v>14.56038425617311</v>
       </c>
       <c r="I2" t="n">
-        <v>57.6554290829572</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22723,7 +22723,7 @@
         <v>146.4182938009555</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9783166848767</v>
+        <v>101.9783166848766</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>80.74105985450808</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.493733024666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844822904</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856545</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393034</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459318</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.725524766796</v>
+        <v>63.36835372228761</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295017</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.876544027065393e-13</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26366,7 +26366,7 @@
         <v>1186172.826266607</v>
       </c>
       <c r="C3" t="n">
-        <v>135540.2139992237</v>
+        <v>135540.2139992233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="J3" t="n">
-        <v>184268.196525982</v>
+        <v>184268.1965259821</v>
       </c>
       <c r="K3" t="n">
         <v>32719.39465488819</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363164</v>
       </c>
       <c r="O3" t="n">
-        <v>1.149049109829191e-10</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16646.75586284793</v>
+        <v>16646.75586284791</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26436,28 +26436,28 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="J4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="K4" t="n">
         <v>18547.94754987467</v>
       </c>
       <c r="L4" t="n">
+        <v>18547.94754987468</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18547.94754987478</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18547.94754987486</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18547.94754987479</v>
+      </c>
+      <c r="P4" t="n">
         <v>18547.94754987467</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18547.94754987466</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18547.94754987467</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18547.94754987468</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97942.80602990602</v>
+        <v>97942.80602990603</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26503,7 +26503,7 @@
         <v>103164.1158539154</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539153</v>
       </c>
       <c r="O5" t="n">
         <v>103164.1158539154</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1300762.388159361</v>
+        <v>-1301226.684951385</v>
       </c>
       <c r="C6" t="n">
-        <v>-333218.2776187495</v>
+        <v>-333218.2776187491</v>
       </c>
       <c r="D6" t="n">
         <v>-197678.0636195258</v>
       </c>
       <c r="E6" t="n">
-        <v>-437092.0799180436</v>
+        <v>-437126.8178434792</v>
       </c>
       <c r="F6" t="n">
-        <v>-111679.6181106883</v>
+        <v>-111714.356036124</v>
       </c>
       <c r="G6" t="n">
-        <v>-111679.6181106883</v>
+        <v>-111714.356036124</v>
       </c>
       <c r="H6" t="n">
-        <v>-111679.6181106883</v>
+        <v>-111714.356036124</v>
       </c>
       <c r="I6" t="n">
         <v>-141139.7813974218</v>
@@ -26558,7 +26558,7 @@
         <v>-141139.7813974218</v>
       </c>
       <c r="O6" t="n">
-        <v>-121712.0634037902</v>
+        <v>-121712.0634037903</v>
       </c>
       <c r="P6" t="n">
         <v>-121712.06340379</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203967</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483914</v>
+        <v>986.0343569483916</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26768,13 +26768,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.270675138669</v>
+        <v>704.2706751386695</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>9.38931472254418e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>1.436311387286488e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483914</v>
+        <v>986.0343569483916</v>
       </c>
       <c r="C3" t="n">
-        <v>103.7423436449069</v>
+        <v>103.7423436449067</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.270675138669</v>
+        <v>704.2706751386695</v>
       </c>
       <c r="C4" t="n">
-        <v>127.1307802636236</v>
+        <v>127.1307802636233</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.270675138669</v>
+        <v>704.2706751386695</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636236</v>
+        <v>127.1307802636233</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>9.38931472254418e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.270675138669</v>
+        <v>704.2706751386695</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636236</v>
+        <v>127.1307802636233</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.06405385105126</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2823568080678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>123.0762367492909</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>67.91322356906866</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.485179306771272</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.39329958492573</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>92.48912964370402</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>132.2320741356197</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.61295788314393e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.963957213862877</v>
+        <v>3.963957213862878</v>
       </c>
       <c r="H2" t="n">
-        <v>40.5958768164732</v>
+        <v>40.59587681647321</v>
       </c>
       <c r="I2" t="n">
         <v>152.8204604874487</v>
@@ -31051,37 +31051,37 @@
         <v>336.4359135800947</v>
       </c>
       <c r="K2" t="n">
-        <v>504.2302224429104</v>
+        <v>504.2302224429105</v>
       </c>
       <c r="L2" t="n">
-        <v>625.5421780266665</v>
+        <v>625.5421780266666</v>
       </c>
       <c r="M2" t="n">
-        <v>696.0362021287004</v>
+        <v>696.0362021287006</v>
       </c>
       <c r="N2" t="n">
-        <v>707.2987955625883</v>
+        <v>707.2987955625886</v>
       </c>
       <c r="O2" t="n">
-        <v>667.8821960172394</v>
+        <v>667.8821960172395</v>
       </c>
       <c r="P2" t="n">
-        <v>570.0220022999995</v>
+        <v>570.0220022999996</v>
       </c>
       <c r="Q2" t="n">
-        <v>428.0627845785351</v>
+        <v>428.0627845785352</v>
       </c>
       <c r="R2" t="n">
         <v>249.0009273353142</v>
       </c>
       <c r="S2" t="n">
-        <v>90.3286750109004</v>
+        <v>90.32867501090043</v>
       </c>
       <c r="T2" t="n">
-        <v>17.35222270368475</v>
+        <v>17.35222270368476</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3171165771090301</v>
+        <v>0.3171165771090302</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.120904088530502</v>
+        <v>2.120904088530503</v>
       </c>
       <c r="H3" t="n">
-        <v>20.48346843396564</v>
+        <v>20.48346843396565</v>
       </c>
       <c r="I3" t="n">
-        <v>73.02235567966862</v>
+        <v>73.02235567966864</v>
       </c>
       <c r="J3" t="n">
         <v>200.3789253115595</v>
       </c>
       <c r="K3" t="n">
-        <v>342.4794992431031</v>
+        <v>342.4794992431032</v>
       </c>
       <c r="L3" t="n">
-        <v>460.5059513276427</v>
+        <v>460.5059513276428</v>
       </c>
       <c r="M3" t="n">
-        <v>537.3887245368733</v>
+        <v>537.3887245368734</v>
       </c>
       <c r="N3" t="n">
-        <v>551.6118050253082</v>
+        <v>551.6118050253083</v>
       </c>
       <c r="O3" t="n">
-        <v>504.6170354847112</v>
+        <v>504.6170354847113</v>
       </c>
       <c r="P3" t="n">
-        <v>404.9996588001799</v>
+        <v>404.99965880018</v>
       </c>
       <c r="Q3" t="n">
-        <v>270.7315464587357</v>
+        <v>270.7315464587358</v>
       </c>
       <c r="R3" t="n">
-        <v>131.6820977071833</v>
+        <v>131.6820977071834</v>
       </c>
       <c r="S3" t="n">
-        <v>39.39486322336259</v>
+        <v>39.39486322336261</v>
       </c>
       <c r="T3" t="n">
-        <v>8.548731830524259</v>
+        <v>8.548731830524261</v>
       </c>
       <c r="U3" t="n">
         <v>0.1395331637191121</v>
@@ -31203,10 +31203,10 @@
         <v>15.80887870648406</v>
       </c>
       <c r="I4" t="n">
-        <v>53.47215824238163</v>
+        <v>53.47215824238165</v>
       </c>
       <c r="J4" t="n">
-        <v>125.7112982620924</v>
+        <v>125.7112982620925</v>
       </c>
       <c r="K4" t="n">
         <v>206.5822800295154</v>
@@ -31218,10 +31218,10 @@
         <v>278.7244330632969</v>
       </c>
       <c r="N4" t="n">
-        <v>272.0969890247915</v>
+        <v>272.0969890247916</v>
       </c>
       <c r="O4" t="n">
-        <v>251.3256095382556</v>
+        <v>251.3256095382557</v>
       </c>
       <c r="P4" t="n">
         <v>215.0524768006786</v>
@@ -31230,16 +31230,16 @@
         <v>148.8911878992071</v>
       </c>
       <c r="R4" t="n">
-        <v>79.94960540109413</v>
+        <v>79.94960540109415</v>
       </c>
       <c r="S4" t="n">
-        <v>30.9873420044273</v>
+        <v>30.98734200442731</v>
       </c>
       <c r="T4" t="n">
-        <v>7.597313897799078</v>
+        <v>7.59731389779908</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09698698592935008</v>
+        <v>0.09698698592935009</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31996,7 +31996,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32084,10 +32084,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32704,10 +32704,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948343</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,28 +33980,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197792</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,28 +34217,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622672</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34699,28 +34699,28 @@
         <v>155.3900090534084</v>
       </c>
       <c r="K2" t="n">
-        <v>284.1403713979298</v>
+        <v>284.1403713979299</v>
       </c>
       <c r="L2" t="n">
-        <v>389.7757630566793</v>
+        <v>389.7757630566794</v>
       </c>
       <c r="M2" t="n">
-        <v>465.6899689014277</v>
+        <v>465.6899689014278</v>
       </c>
       <c r="N2" t="n">
-        <v>477.8857319659974</v>
+        <v>477.8857319659976</v>
       </c>
       <c r="O2" t="n">
-        <v>437.7839845955526</v>
+        <v>437.7839845955527</v>
       </c>
       <c r="P2" t="n">
-        <v>338.7890065447299</v>
+        <v>338.7890065447301</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.7570947040856</v>
+        <v>205.7570947040857</v>
       </c>
       <c r="R2" t="n">
-        <v>33.41538952118205</v>
+        <v>33.41538952118211</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.54129864489278</v>
+        <v>73.54129864489281</v>
       </c>
       <c r="K3" t="n">
-        <v>204.6380602687441</v>
+        <v>204.6380602687442</v>
       </c>
       <c r="L3" t="n">
-        <v>321.9515715477685</v>
+        <v>321.9515715477686</v>
       </c>
       <c r="M3" t="n">
-        <v>395.254690614855</v>
+        <v>395.2546906148551</v>
       </c>
       <c r="N3" t="n">
-        <v>420.2700929419749</v>
+        <v>420.270092941975</v>
       </c>
       <c r="O3" t="n">
-        <v>362.0207910402668</v>
+        <v>362.0207910402669</v>
       </c>
       <c r="P3" t="n">
-        <v>378.7011908210117</v>
+        <v>378.7011908210108</v>
       </c>
       <c r="Q3" t="n">
-        <v>340.8270601085633</v>
+        <v>340.8270601085634</v>
       </c>
       <c r="R3" t="n">
-        <v>31.52426355454021</v>
+        <v>31.52426355454024</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.35211814541967</v>
+        <v>32.35211814541969</v>
       </c>
       <c r="K4" t="n">
-        <v>184.3127882036325</v>
+        <v>184.3127882036326</v>
       </c>
       <c r="L4" t="n">
         <v>291.9442199084144</v>
@@ -34869,13 +34869,13 @@
         <v>316.2291614040201</v>
       </c>
       <c r="O4" t="n">
-        <v>275.9107374522953</v>
+        <v>275.9107374522954</v>
       </c>
       <c r="P4" t="n">
         <v>212.3310360655721</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72914464751271</v>
+        <v>62.72914464751274</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402482</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36516,10 +36516,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
         <v>450.5570744930848</v>
@@ -36534,7 +36534,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,16 +36753,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980851</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281603</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,16 +37470,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986645</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753348</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016745</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.626661811171</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986645</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402489</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
